--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4023866.005077746</v>
+        <v>4025626.535380532</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7257841.508688376</v>
+        <v>7257841.508688375</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234414</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607266</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>168.7496190731697</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>40.15468104981507</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40937271891291</v>
+        <v>63.69429571031458</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870447</v>
+        <v>53.80849853870445</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
@@ -794,7 +794,7 @@
         <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8922693348453</v>
+        <v>79.01034292140152</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.34522014008695</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.179608058374959</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>46.98178449325998</v>
+        <v>291.4602625293657</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -992,7 +992,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385502</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>77.43213079320299</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>58.31821649666725</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9050072692257424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>272.1752399778213</v>
+        <v>206.4653273053509</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893132</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>194.0641876011614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>71.76895293959859</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>229.5008627569616</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>137.3021949834109</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8913819999782</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.370692036903</v>
+        <v>1607.394263928675</v>
       </c>
       <c r="C2" t="n">
-        <v>974.4081750964915</v>
+        <v>1238.431746988263</v>
       </c>
       <c r="D2" t="n">
-        <v>616.1424764897409</v>
+        <v>880.1660483815126</v>
       </c>
       <c r="E2" t="n">
-        <v>230.3542238914967</v>
+        <v>880.1660483815126</v>
       </c>
       <c r="F2" t="n">
-        <v>223.4087231422932</v>
+        <v>469.1801435919051</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710336</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005012</v>
+        <v>435.2148351005013</v>
       </c>
       <c r="L2" t="n">
         <v>833.2666318311644</v>
@@ -4345,7 +4345,7 @@
         <v>1745.101812813643</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132812</v>
+        <v>2127.026478132813</v>
       </c>
       <c r="P2" t="n">
         <v>2415.315960935767</v>
@@ -4354,28 +4354,28 @@
         <v>2554.587596648577</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.73303530911</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.73303530911</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.73303530911</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="U2" t="n">
-        <v>2451.172751420408</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.109864076837</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.109864076837</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="X2" t="n">
-        <v>2120.109864076837</v>
+        <v>2384.133435968608</v>
       </c>
       <c r="Y2" t="n">
-        <v>1729.970532101025</v>
+        <v>1993.994103992796</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777588</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966318</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>516.8991849353805</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>357.661729929925</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>211.12717195681</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
-        <v>211.12717195681</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0406132652068</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687509</v>
+        <v>120.176512368751</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270542</v>
+        <v>207.7339934539365</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066745</v>
+        <v>598.1646481335567</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633824</v>
+        <v>1105.758028360706</v>
       </c>
       <c r="N3" t="n">
         <v>1642.492908358683</v>
@@ -4427,7 +4427,7 @@
         <v>2067.084785635555</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153968</v>
+        <v>2390.854132153969</v>
       </c>
       <c r="Q3" t="n">
         <v>2554.587596648577</v>
@@ -4442,19 +4442,19 @@
         <v>2141.677234257395</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828258</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596515</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868314</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662781</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897827</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.1957083653476</v>
+        <v>664.9476153535177</v>
       </c>
       <c r="C4" t="n">
-        <v>673.1957083653476</v>
+        <v>496.0114324256108</v>
       </c>
       <c r="D4" t="n">
-        <v>673.1957083653476</v>
+        <v>345.894793013275</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2826147829545</v>
+        <v>197.9816994308819</v>
       </c>
       <c r="F4" t="n">
-        <v>378.3926672850442</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="G4" t="n">
-        <v>209.3369831285945</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771861</v>
+        <v>101.0304570771862</v>
       </c>
       <c r="L4" t="n">
         <v>220.4612409703271</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486098</v>
+        <v>356.7733802486099</v>
       </c>
       <c r="N4" t="n">
-        <v>495.27893794932</v>
+        <v>495.2789379493202</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455642</v>
+        <v>607.1949427455644</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="S4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="T4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="U4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="V4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="W4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="X4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.1957083653476</v>
+        <v>679.4377367071409</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.6111522306082</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>105.6486352901965</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>105.6486352901965</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E5" t="n">
-        <v>105.6486352901965</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F5" t="n">
-        <v>98.70313454099299</v>
+        <v>345.651092153221</v>
       </c>
       <c r="G5" t="n">
         <v>51.24678656800311</v>
@@ -4567,22 +4567,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>141.8581251948186</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>224.4212797694109</v>
       </c>
       <c r="L5" t="n">
-        <v>615.2768054226851</v>
+        <v>777.2345380156102</v>
       </c>
       <c r="M5" t="n">
-        <v>801.9762182480928</v>
+        <v>1408.952348998922</v>
       </c>
       <c r="N5" t="n">
-        <v>1429.283886307939</v>
+        <v>2036.260017058768</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
         <v>2317.163367625255</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.647625145306</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.584737801736</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.816082531622</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.350324270542</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.21099229473</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378979</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647829</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240048</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
         <v>97.15164357768663</v>
@@ -4646,22 +4646,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1257.395129876517</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1891.574113655556</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812389</v>
+        <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
         <v>2331.625872339688</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2463.013155273854</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2266.023859433942</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>2037.885071945108</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.8605983355761</v>
+        <v>279.090258886483</v>
       </c>
       <c r="C7" t="n">
-        <v>363.9244154076692</v>
+        <v>110.1540759585761</v>
       </c>
       <c r="D7" t="n">
-        <v>363.9244154076692</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>216.0113218252761</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4761,16 +4761,16 @@
         <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>796.496979821461</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>507.0798097845004</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7747470923698</v>
+        <v>279.090258886483</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.8605983355761</v>
+        <v>279.090258886483</v>
       </c>
     </row>
     <row r="8">
@@ -4795,25 +4795,25 @@
         <v>326.1712713940853</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
         <v>51.24678656800311</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="14">
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,52 +5746,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.228293990834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>960.4603932171079</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6448,40 +6448,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>199.7675539570408</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,10 +7198,10 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,31 +7420,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.773653616861</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>105.737740777106</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>320.6148781080811</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>70.07786730649714</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>291.3084946071325</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>173.5856752404773</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.5961368238072</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.0073097921338</v>
+        <v>129.4330134067481</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.63678056686641</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.72409101823371</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.40333084624568</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
@@ -26331,31 +26331,31 @@
         <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161967</v>
+        <v>548460.0746161968</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299269</v>
+        <v>225009.9816299267</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>167098.1292843801</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243600065</v>
+        <v>498.7619243600673</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.26951356113355e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198064</v>
+        <v>247452.3619198063</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26441,22 +26441,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719691</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171964</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54893.98039118032</v>
+        <v>-54893.98039117991</v>
       </c>
       <c r="C6" t="n">
-        <v>312206.2167951519</v>
+        <v>312206.2167951524</v>
       </c>
       <c r="D6" t="n">
-        <v>303305.1243546678</v>
+        <v>303305.1243546677</v>
       </c>
       <c r="E6" t="n">
-        <v>190683.880525477</v>
+        <v>190996.5218543978</v>
       </c>
       <c r="F6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789437</v>
       </c>
       <c r="G6" t="n">
-        <v>698169.3221500223</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="H6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="I6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="J6" t="n">
-        <v>531071.1928656426</v>
+        <v>531383.8341945639</v>
       </c>
       <c r="K6" t="n">
-        <v>697670.5602256624</v>
+        <v>697983.2015545836</v>
       </c>
       <c r="L6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="M6" t="n">
-        <v>565562.0284210956</v>
+        <v>565874.6697500171</v>
       </c>
       <c r="N6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="O6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="P6" t="n">
-        <v>698169.3221500226</v>
+        <v>698481.963478944</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817389</v>
+        <v>347.0634059817391</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621443</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817389</v>
+        <v>347.0634059817391</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563261</v>
+        <v>246.412694356326</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794741</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621443</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621441</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894402</v>
+        <v>1.937932937894743</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621443</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>62.22601572607262</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>8.476652065602764</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>211.0793534761982</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.28492299140169</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8819264134438</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.4867600418503</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601731</v>
+        <v>49.11144063601729</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845181</v>
+        <v>33.75546894845179</v>
       </c>
       <c r="R4" t="n">
         <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>206.9300957283187</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>365.9351194526768</v>
+        <v>121.4566414165711</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27672,7 +27672,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278843</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>70.53999045278857</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>90.29725652154511</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.6796460828691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>139.3724627951327</v>
+        <v>205.0823754676031</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188745</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-2.562828902469029e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790909</v>
+        <v>1.39522977279091</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2888969105949</v>
+        <v>14.28889691059491</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552158</v>
+        <v>53.78959581552161</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284125</v>
+        <v>118.4183829284126</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106517</v>
+        <v>177.4784592106518</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697016</v>
+        <v>220.1777223697017</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415719</v>
+        <v>244.990139841572</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335141</v>
+        <v>248.9543364335142</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803245</v>
+        <v>235.0805203803246</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645489</v>
+        <v>200.635785364549</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264744</v>
+        <v>150.6691191264745</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507702</v>
+        <v>87.64310221507706</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747287</v>
+        <v>31.79379844747289</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392208</v>
+        <v>6.107618330392211</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232727</v>
+        <v>0.1116183818232728</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682686</v>
+        <v>0.7465137411682691</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809332</v>
+        <v>7.209751131809336</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110048</v>
+        <v>25.70233714110049</v>
       </c>
       <c r="J3" t="n">
-        <v>70.5291776250249</v>
+        <v>70.52917762502494</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832989</v>
+        <v>120.545598283299</v>
       </c>
       <c r="L3" t="n">
-        <v>162.088433142698</v>
+        <v>162.0884331426981</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600477</v>
+        <v>189.1495562600478</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821805</v>
+        <v>194.1557821821806</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857678</v>
+        <v>177.6146092857679</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323863</v>
+        <v>142.5513827323864</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351444</v>
+        <v>95.29182422351448</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393866</v>
+        <v>46.34933561393868</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389305</v>
+        <v>13.86616532389306</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200169</v>
+        <v>3.008974246200171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949138</v>
+        <v>0.0491127461294914</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736274</v>
+        <v>0.6258520435736278</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772801</v>
+        <v>5.564393623772804</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946873</v>
+        <v>18.82107781946874</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065546</v>
+        <v>44.24773948065548</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519053</v>
+        <v>72.71262833519056</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730097</v>
+        <v>93.04713018730101</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218234</v>
+        <v>98.10515261218239</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886253</v>
+        <v>95.77243135886259</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711603</v>
+        <v>88.46134157711607</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821397</v>
+        <v>75.69395988821401</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324258</v>
+        <v>52.4065743032426</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468328</v>
+        <v>28.14058370468329</v>
       </c>
       <c r="S4" t="n">
         <v>10.90689425027858</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269135</v>
+        <v>2.674095095269136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492517</v>
+        <v>0.03413738419492519</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,10 +32797,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738</v>
+        <v>106.4690935738001</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368359</v>
+        <v>281.5340207368361</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501648</v>
+        <v>402.0725219501649</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071317</v>
+        <v>464.1574401071318</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489073</v>
+        <v>456.8881972489074</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213831</v>
+        <v>385.7824902213832</v>
       </c>
       <c r="P2" t="n">
-        <v>291.201497780762</v>
+        <v>291.2014977807621</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119296</v>
+        <v>140.6784199119297</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876704</v>
+        <v>69.78258629876709</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215185</v>
+        <v>88.44190008604598</v>
       </c>
       <c r="L3" t="n">
-        <v>394.374398666283</v>
+        <v>394.3743986662831</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880292</v>
+        <v>512.7205860880293</v>
       </c>
       <c r="N3" t="n">
-        <v>383.4289482069283</v>
+        <v>542.1564444424009</v>
       </c>
       <c r="O3" t="n">
         <v>428.880684118053</v>
@@ -34798,7 +34798,7 @@
         <v>327.0397439579933</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.387337873342</v>
+        <v>165.3873378733421</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930768</v>
+        <v>50.44313650930771</v>
       </c>
       <c r="L4" t="n">
         <v>120.6371554476171</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740229</v>
+        <v>137.689029574023</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.9046037380912</v>
       </c>
       <c r="O4" t="n">
         <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310746</v>
+        <v>72.9725191531075</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>91.52660467355098</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>463.1963989676977</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>334.7092233907405</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>404.3836393766343</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M9" t="n">
+        <v>366.9313322820406</v>
+      </c>
+      <c r="N9" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.9313322820405</v>
-      </c>
-      <c r="N9" t="n">
-        <v>391.1970995928739</v>
-      </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>411.6868389156661</v>
+        <v>379.1125425302805</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,10 +36445,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
